--- a/arrange.xlsx
+++ b/arrange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruangong\edumanage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\EduAdmSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC5459-A017-419B-87F1-4C5AA6FB702F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1013E4A3-D6F7-436D-A13A-A659F1EB793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="3576" windowWidth="18036" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2604" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,17 +66,17 @@
     <t>教学楼A区</t>
   </si>
   <si>
-    <t>A102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mon</t>
   </si>
   <si>
     <t>教学楼B区</t>
   </si>
   <si>
-    <t>B101</t>
+    <t>A201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +405,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,45 +452,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20011103</v>
+        <v>20061104</v>
       </c>
       <c r="B2">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C2">
-        <v>20202</v>
+        <v>20231</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>30</v>
       </c>
       <c r="I2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20061101</v>
+        <v>20061107</v>
       </c>
       <c r="B3">
         <v>10001</v>
       </c>
       <c r="C3">
-        <v>20202</v>
+        <v>20231</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -499,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>40</v>
       </c>
       <c r="I3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/arrange.xlsx
+++ b/arrange.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\EduAdmSys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\报告\中间件\edu-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1013E4A3-D6F7-436D-A13A-A659F1EB793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876D6AC6-560B-48AE-95D8-91445DA6BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2604" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>teacherno</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,12 +72,15 @@
     <t>教学楼B区</t>
   </si>
   <si>
-    <t>A201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>B102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
   </si>
 </sst>
 </file>
@@ -405,23 +408,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20061104</v>
       </c>
@@ -464,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -479,9 +482,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20061107</v>
+        <v>20061105</v>
       </c>
       <c r="B3">
         <v>10001</v>
@@ -493,13 +496,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>40</v>
